--- a/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002102088284645</v>
+        <v>0.9979702577795394</v>
       </c>
       <c r="D2">
-        <v>1.023506300159397</v>
+        <v>1.020135657647516</v>
       </c>
       <c r="E2">
-        <v>1.007640184504246</v>
+        <v>1.00467787363972</v>
       </c>
       <c r="F2">
-        <v>1.023344505326373</v>
+        <v>1.019737570609146</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0484465393549</v>
+        <v>1.046735415138606</v>
       </c>
       <c r="J2">
-        <v>1.024220107523228</v>
+        <v>1.020211848037368</v>
       </c>
       <c r="K2">
-        <v>1.034647587304134</v>
+        <v>1.031321420976673</v>
       </c>
       <c r="L2">
-        <v>1.018994095794962</v>
+        <v>1.016072420694199</v>
       </c>
       <c r="M2">
-        <v>1.034487918988328</v>
+        <v>1.030928611122686</v>
       </c>
       <c r="N2">
-        <v>1.0256746175556</v>
+        <v>1.021660665881513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009618790879304</v>
+        <v>1.002903581793192</v>
       </c>
       <c r="D3">
-        <v>1.029519273064702</v>
+        <v>1.024034810450272</v>
       </c>
       <c r="E3">
-        <v>1.013914102843444</v>
+        <v>1.008639694691195</v>
       </c>
       <c r="F3">
-        <v>1.030228852721219</v>
+        <v>1.024364929033725</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051007043751337</v>
+        <v>1.048219690970432</v>
       </c>
       <c r="J3">
-        <v>1.029850628815151</v>
+        <v>1.023315403996737</v>
       </c>
       <c r="K3">
-        <v>1.039787883212129</v>
+        <v>1.034369127012081</v>
       </c>
       <c r="L3">
-        <v>1.024371992589453</v>
+        <v>1.01916320976894</v>
       </c>
       <c r="M3">
-        <v>1.040489025121904</v>
+        <v>1.034695265920714</v>
       </c>
       <c r="N3">
-        <v>1.031313134833586</v>
+        <v>1.02476862924633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014335934479132</v>
+        <v>1.006025232528874</v>
       </c>
       <c r="D4">
-        <v>1.033294281888904</v>
+        <v>1.026501931013967</v>
       </c>
       <c r="E4">
-        <v>1.017857179006143</v>
+        <v>1.011152876183337</v>
       </c>
       <c r="F4">
-        <v>1.03455490952367</v>
+        <v>1.027296458396378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052598004385663</v>
+        <v>1.049143426202141</v>
       </c>
       <c r="J4">
-        <v>1.033379901165197</v>
+        <v>1.025276057992839</v>
       </c>
       <c r="K4">
-        <v>1.043006817880323</v>
+        <v>1.036290686311329</v>
       </c>
       <c r="L4">
-        <v>1.02774475693186</v>
+        <v>1.021118533886303</v>
       </c>
       <c r="M4">
-        <v>1.044253435016541</v>
+        <v>1.037076233891605</v>
       </c>
       <c r="N4">
-        <v>1.034847419155184</v>
+        <v>1.026732067595996</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016285887082927</v>
+        <v>1.00732133575515</v>
       </c>
       <c r="D5">
-        <v>1.034855035399515</v>
+        <v>1.027526176866503</v>
       </c>
       <c r="E5">
-        <v>1.019488459446477</v>
+        <v>1.012197796886018</v>
       </c>
       <c r="F5">
-        <v>1.036344478429351</v>
+        <v>1.028514410495964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053251781546689</v>
+        <v>1.049523190048264</v>
       </c>
       <c r="J5">
-        <v>1.034837741893565</v>
+        <v>1.026089314783666</v>
       </c>
       <c r="K5">
-        <v>1.044335707282424</v>
+        <v>1.037086794004575</v>
       </c>
       <c r="L5">
-        <v>1.029138380977513</v>
+        <v>1.021930235511066</v>
       </c>
       <c r="M5">
-        <v>1.045809072539722</v>
+        <v>1.03806416607769</v>
       </c>
       <c r="N5">
-        <v>1.036307330184603</v>
+        <v>1.027546479304748</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016611404074822</v>
+        <v>1.00753802313358</v>
       </c>
       <c r="D6">
-        <v>1.035115593066861</v>
+        <v>1.027697406540911</v>
       </c>
       <c r="E6">
-        <v>1.019760852969674</v>
+        <v>1.012372574598522</v>
       </c>
       <c r="F6">
-        <v>1.036643294328457</v>
+        <v>1.028718077152588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053360689693088</v>
+        <v>1.049586457123241</v>
       </c>
       <c r="J6">
-        <v>1.035081042617224</v>
+        <v>1.026225229735997</v>
       </c>
       <c r="K6">
-        <v>1.044557441748807</v>
+        <v>1.037219787527169</v>
       </c>
       <c r="L6">
-        <v>1.029370989682873</v>
+        <v>1.022065929092317</v>
       </c>
       <c r="M6">
-        <v>1.04606873355769</v>
+        <v>1.038229293082034</v>
       </c>
       <c r="N6">
-        <v>1.036550976423195</v>
+        <v>1.027682587271901</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014362117546791</v>
+        <v>1.006042614098256</v>
       </c>
       <c r="D7">
-        <v>1.033315238097679</v>
+        <v>1.026515667272294</v>
       </c>
       <c r="E7">
-        <v>1.01787907803071</v>
+        <v>1.011166883559997</v>
       </c>
       <c r="F7">
-        <v>1.034578934081693</v>
+        <v>1.027312788862951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052606798486847</v>
+        <v>1.049148534047917</v>
       </c>
       <c r="J7">
-        <v>1.033399480723821</v>
+        <v>1.025286967509416</v>
       </c>
       <c r="K7">
-        <v>1.043024668597383</v>
+        <v>1.036301369492718</v>
       </c>
       <c r="L7">
-        <v>1.02776347232684</v>
+        <v>1.021129419949739</v>
       </c>
       <c r="M7">
-        <v>1.04427432541075</v>
+        <v>1.037089485292693</v>
       </c>
       <c r="N7">
-        <v>1.034867026519026</v>
+        <v>1.026742992605338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004674006636818</v>
+        <v>0.9996525056413585</v>
       </c>
       <c r="D8">
-        <v>1.025563305095981</v>
+        <v>1.021465245610352</v>
       </c>
       <c r="E8">
-        <v>1.00978557591619</v>
+        <v>1.006027494383423</v>
       </c>
       <c r="F8">
-        <v>1.025698779951191</v>
+        <v>1.021314723033789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049325952779451</v>
+        <v>1.047244760022453</v>
       </c>
       <c r="J8">
-        <v>1.026147489249546</v>
+        <v>1.021270792775075</v>
       </c>
       <c r="K8">
-        <v>1.03640779029428</v>
+        <v>1.032362099346478</v>
       </c>
       <c r="L8">
-        <v>1.020834606983045</v>
+        <v>1.017126433775211</v>
       </c>
       <c r="M8">
-        <v>1.036541542858852</v>
+        <v>1.032213510281421</v>
       </c>
       <c r="N8">
-        <v>1.027604736385042</v>
+        <v>1.022721114442213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9863802692544452</v>
+        <v>0.987820965150715</v>
       </c>
       <c r="D9">
-        <v>1.010943929372939</v>
+        <v>1.012116205377978</v>
       </c>
       <c r="E9">
-        <v>0.9945554012684157</v>
+        <v>0.9965643035262223</v>
       </c>
       <c r="F9">
-        <v>1.008982564563468</v>
+        <v>1.010239317451704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043005219364441</v>
+        <v>1.043599006588508</v>
       </c>
       <c r="J9">
-        <v>1.012423315554924</v>
+        <v>1.013811250380986</v>
       </c>
       <c r="K9">
-        <v>1.023861909711911</v>
+        <v>1.025015717280749</v>
       </c>
       <c r="L9">
-        <v>1.007737435286031</v>
+        <v>1.009713369542628</v>
       </c>
       <c r="M9">
-        <v>1.021931567827708</v>
+        <v>1.023168424892509</v>
       </c>
       <c r="N9">
-        <v>1.013861072789589</v>
+        <v>1.015250978642303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9732065762184089</v>
+        <v>0.9795023751990136</v>
       </c>
       <c r="D10">
-        <v>1.000437979623781</v>
+        <v>1.005549052027008</v>
       </c>
       <c r="E10">
-        <v>0.9836316316642</v>
+        <v>0.9899503579932039</v>
       </c>
       <c r="F10">
-        <v>0.9969884827188266</v>
+        <v>1.002476520100139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038373349698118</v>
+        <v>1.040957684024391</v>
       </c>
       <c r="J10">
-        <v>1.002525098763316</v>
+        <v>1.008553530376559</v>
       </c>
       <c r="K10">
-        <v>1.014799330713464</v>
+        <v>1.019818834239018</v>
       </c>
       <c r="L10">
-        <v>0.9983028477167141</v>
+        <v>1.004503463880396</v>
       </c>
       <c r="M10">
-        <v>1.011412324760969</v>
+        <v>1.016801203715055</v>
       </c>
       <c r="N10">
-        <v>1.003948799394796</v>
+        <v>1.0099857920724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967229012669541</v>
+        <v>0.9757866493824767</v>
       </c>
       <c r="D11">
-        <v>0.9956784652964018</v>
+        <v>1.002618195686111</v>
       </c>
       <c r="E11">
-        <v>0.9786874490082542</v>
+        <v>0.9870063569402063</v>
       </c>
       <c r="F11">
-        <v>0.9915586669595242</v>
+        <v>0.999015672434273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036253984867061</v>
+        <v>1.039760243877192</v>
       </c>
       <c r="J11">
-        <v>0.9980316383042948</v>
+        <v>1.006202615400218</v>
       </c>
       <c r="K11">
-        <v>1.010682342208566</v>
+        <v>1.017490905003577</v>
       </c>
       <c r="L11">
-        <v>0.9940228007351016</v>
+        <v>1.002177546118171</v>
       </c>
       <c r="M11">
-        <v>1.006641549749731</v>
+        <v>1.013956175635651</v>
       </c>
       <c r="N11">
-        <v>0.9994489577065158</v>
+        <v>1.007631538527139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9649635218196607</v>
+        <v>0.9743883082855558</v>
       </c>
       <c r="D12">
-        <v>0.9938759813151893</v>
+        <v>1.001515707727761</v>
       </c>
       <c r="E12">
-        <v>0.9768156848514594</v>
+        <v>0.9859000713215383</v>
       </c>
       <c r="F12">
-        <v>0.9895028579893544</v>
+        <v>0.9977143248713002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035448229475144</v>
+        <v>1.039307043132872</v>
       </c>
       <c r="J12">
-        <v>0.9963284405539494</v>
+        <v>1.005317593410236</v>
       </c>
       <c r="K12">
-        <v>1.00912145591773</v>
+        <v>1.016613926667682</v>
       </c>
       <c r="L12">
-        <v>0.9924009595307686</v>
+        <v>1.001302482710857</v>
       </c>
       <c r="M12">
-        <v>1.004833968306131</v>
+        <v>1.012885446211343</v>
       </c>
       <c r="N12">
-        <v>0.9977433412200054</v>
+        <v>1.006745259704418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9654515928974182</v>
+        <v>0.9746890968819478</v>
       </c>
       <c r="D13">
-        <v>0.9942642377740754</v>
+        <v>1.001752833674896</v>
       </c>
       <c r="E13">
-        <v>0.9772188353601556</v>
+        <v>0.9861379625208417</v>
       </c>
       <c r="F13">
-        <v>0.9899456580518842</v>
+        <v>0.9979941998641882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035621930500979</v>
+        <v>1.039404643023032</v>
       </c>
       <c r="J13">
-        <v>0.9966953784569543</v>
+        <v>1.005507977645991</v>
       </c>
       <c r="K13">
-        <v>1.009457750785693</v>
+        <v>1.016802607705108</v>
       </c>
       <c r="L13">
-        <v>0.992750348581148</v>
+        <v>1.00149069983347</v>
       </c>
       <c r="M13">
-        <v>1.005223361141088</v>
+        <v>1.013115765539184</v>
       </c>
       <c r="N13">
-        <v>0.9981108002169211</v>
+        <v>1.006935914307626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9670426934468139</v>
+        <v>0.9756714389218043</v>
       </c>
       <c r="D14">
-        <v>0.9955301956916441</v>
+        <v>1.002527350395739</v>
       </c>
       <c r="E14">
-        <v>0.9785334674534779</v>
+        <v>0.9869151755077089</v>
       </c>
       <c r="F14">
-        <v>0.9913895488954991</v>
+        <v>0.9989084310233913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036187767891111</v>
+        <v>1.039722955986345</v>
       </c>
       <c r="J14">
-        <v>0.9978915661561496</v>
+        <v>1.006129703466303</v>
       </c>
       <c r="K14">
-        <v>1.010553981395117</v>
+        <v>1.017418667981353</v>
       </c>
       <c r="L14">
-        <v>0.993889409850699</v>
+        <v>1.0021054434506</v>
       </c>
       <c r="M14">
-        <v>1.006492878003933</v>
+        <v>1.013867958065906</v>
       </c>
       <c r="N14">
-        <v>0.9993086866398538</v>
+        <v>1.007558523049916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680169068077139</v>
+        <v>0.9762742530891504</v>
       </c>
       <c r="D15">
-        <v>0.9963055147659444</v>
+        <v>1.003002699287652</v>
       </c>
       <c r="E15">
-        <v>0.979338681397688</v>
+        <v>0.9873923299052034</v>
       </c>
       <c r="F15">
-        <v>0.9922739080302113</v>
+        <v>0.9994695931282953</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036533897291025</v>
+        <v>1.039917952816664</v>
       </c>
       <c r="J15">
-        <v>0.9986239594894198</v>
+        <v>1.006511187727781</v>
       </c>
       <c r="K15">
-        <v>1.011225124435023</v>
+        <v>1.017796596338659</v>
       </c>
       <c r="L15">
-        <v>0.9945868879583567</v>
+        <v>1.002482715888041</v>
       </c>
       <c r="M15">
-        <v>1.007270265792522</v>
+        <v>1.014329535805111</v>
       </c>
       <c r="N15">
-        <v>1.000042120055664</v>
+        <v>1.007940549062802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9735971924827407</v>
+        <v>0.9797464903381412</v>
       </c>
       <c r="D16">
-        <v>1.000749175035087</v>
+        <v>1.00574166421118</v>
       </c>
       <c r="E16">
-        <v>0.9839549938184387</v>
+        <v>0.9901439937962416</v>
       </c>
       <c r="F16">
-        <v>0.9973435805323697</v>
+        <v>1.002704034701587</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038511489981094</v>
+        <v>1.041035993246728</v>
       </c>
       <c r="J16">
-        <v>1.002818700413288</v>
+        <v>1.008707935331031</v>
       </c>
       <c r="K16">
-        <v>1.015068278043567</v>
+        <v>1.019971643812437</v>
       </c>
       <c r="L16">
-        <v>0.9985825675980203</v>
+        <v>1.004656302680054</v>
       </c>
       <c r="M16">
-        <v>1.011724144345437</v>
+        <v>1.016988103252453</v>
       </c>
       <c r="N16">
-        <v>1.004242817992787</v>
+        <v>1.010140416299619</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9770216718990965</v>
+        <v>0.9818933579014913</v>
       </c>
       <c r="D17">
-        <v>1.003478259528443</v>
+        <v>1.007435890243876</v>
       </c>
       <c r="E17">
-        <v>0.9867912932300514</v>
+        <v>0.9918481015373334</v>
       </c>
       <c r="F17">
-        <v>1.000458105183958</v>
+        <v>1.004705670400371</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039720572511366</v>
+        <v>1.041722689637663</v>
       </c>
       <c r="J17">
-        <v>1.005392439601062</v>
+        <v>1.010065580967771</v>
       </c>
       <c r="K17">
-        <v>1.017425575877481</v>
+        <v>1.021314785536579</v>
       </c>
       <c r="L17">
-        <v>1.001034951641012</v>
+        <v>1.006000588902895</v>
       </c>
       <c r="M17">
-        <v>1.014458106921955</v>
+        <v>1.018631692182566</v>
       </c>
       <c r="N17">
-        <v>1.00682021218542</v>
+        <v>1.011499989948886</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9789930514590026</v>
+        <v>0.9831346936172651</v>
       </c>
       <c r="D18">
-        <v>1.005050012101337</v>
+        <v>1.008415738937443</v>
       </c>
       <c r="E18">
-        <v>0.988425229834105</v>
+        <v>0.9928343995841949</v>
       </c>
       <c r="F18">
-        <v>1.002252209997361</v>
+        <v>1.005863653135286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04041494309269</v>
+        <v>1.04211806860957</v>
       </c>
       <c r="J18">
-        <v>1.006873860073167</v>
+        <v>1.010850349877117</v>
       </c>
       <c r="K18">
-        <v>1.018782141418701</v>
+        <v>1.022090769915853</v>
       </c>
       <c r="L18">
-        <v>1.002446795438419</v>
+        <v>1.006777977675165</v>
       </c>
       <c r="M18">
-        <v>1.01603218027906</v>
+        <v>1.019581934109297</v>
       </c>
       <c r="N18">
-        <v>1.008303736444517</v>
+        <v>1.012285873320098</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9796609361154408</v>
+        <v>0.9835561399949778</v>
       </c>
       <c r="D19">
-        <v>1.005582618073408</v>
+        <v>1.008748444519956</v>
       </c>
       <c r="E19">
-        <v>0.9889789825936859</v>
+        <v>0.993169420050827</v>
       </c>
       <c r="F19">
-        <v>1.00286022630453</v>
+        <v>1.006256903366669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040649903032337</v>
+        <v>1.042252017558573</v>
       </c>
       <c r="J19">
-        <v>1.007375711526714</v>
+        <v>1.011116745876214</v>
       </c>
       <c r="K19">
-        <v>1.019241648903953</v>
+        <v>1.02235411526311</v>
       </c>
       <c r="L19">
-        <v>1.002925122739075</v>
+        <v>1.007041926328125</v>
       </c>
       <c r="M19">
-        <v>1.016565491061234</v>
+        <v>1.019904532794507</v>
       </c>
       <c r="N19">
-        <v>1.008806300584691</v>
+        <v>1.01255264763207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9766569811770743</v>
+        <v>0.9816641537920372</v>
       </c>
       <c r="D20">
-        <v>1.003187551463481</v>
+        <v>1.007254986129327</v>
       </c>
       <c r="E20">
-        <v>0.9864891193234665</v>
+        <v>0.9916660661932166</v>
       </c>
       <c r="F20">
-        <v>1.000126301416402</v>
+        <v>1.00449190652059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039591983211047</v>
+        <v>1.04164954968964</v>
       </c>
       <c r="J20">
-        <v>1.005118369654261</v>
+        <v>1.009920659558991</v>
       </c>
       <c r="K20">
-        <v>1.017174582235991</v>
+        <v>1.021171453770387</v>
       </c>
       <c r="L20">
-        <v>1.000773775788675</v>
+        <v>1.005857058001091</v>
       </c>
       <c r="M20">
-        <v>1.014166930329605</v>
+        <v>1.018456228363283</v>
       </c>
       <c r="N20">
-        <v>1.006545753027858</v>
+        <v>1.011354862735084</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9665754363729746</v>
+        <v>0.9753826738709541</v>
       </c>
       <c r="D21">
-        <v>0.9951583834334122</v>
+        <v>1.002299662664072</v>
       </c>
       <c r="E21">
-        <v>0.9781473418803983</v>
+        <v>0.9866866637126345</v>
       </c>
       <c r="F21">
-        <v>0.9909654636985368</v>
+        <v>0.998639657303158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036021666928973</v>
+        <v>1.039629456049186</v>
       </c>
       <c r="J21">
-        <v>0.9975402865268664</v>
+        <v>1.005946951382088</v>
       </c>
       <c r="K21">
-        <v>1.01023206597011</v>
+        <v>1.017237597816433</v>
       </c>
       <c r="L21">
-        <v>0.9935548933618091</v>
+        <v>1.00192472861737</v>
       </c>
       <c r="M21">
-        <v>1.006120043749869</v>
+        <v>1.013646847706404</v>
       </c>
       <c r="N21">
-        <v>0.9989569081532047</v>
+        <v>1.007375511436779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.959973029991264</v>
+        <v>0.9713276237404657</v>
       </c>
       <c r="D22">
-        <v>0.9899082205878562</v>
+        <v>0.9991035905491469</v>
       </c>
       <c r="E22">
-        <v>0.9726965846783369</v>
+        <v>0.9834817376235103</v>
       </c>
       <c r="F22">
-        <v>0.9849783643316624</v>
+        <v>0.9948680115329958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033668800725681</v>
+        <v>1.038310446498432</v>
       </c>
       <c r="J22">
-        <v>0.9925764241903967</v>
+        <v>1.003379977184668</v>
       </c>
       <c r="K22">
-        <v>1.005682284028138</v>
+        <v>1.014692826426264</v>
       </c>
       <c r="L22">
-        <v>0.9888290507070117</v>
+        <v>0.9993876836509038</v>
       </c>
       <c r="M22">
-        <v>1.000853394075814</v>
+        <v>1.010541824299273</v>
       </c>
       <c r="N22">
-        <v>0.9939859965628541</v>
+        <v>1.004804891841562</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.963499615252799</v>
+        <v>0.9734876758043441</v>
       </c>
       <c r="D23">
-        <v>0.9927116757089139</v>
+        <v>1.000805775176772</v>
       </c>
       <c r="E23">
-        <v>0.9756068079182907</v>
+        <v>0.9851880145398525</v>
       </c>
       <c r="F23">
-        <v>0.9881750592842857</v>
+        <v>0.9968764767518501</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034926877567773</v>
+        <v>1.039014435990129</v>
       </c>
       <c r="J23">
-        <v>0.995227842808722</v>
+        <v>1.00474749860985</v>
       </c>
       <c r="K23">
-        <v>1.008112716486831</v>
+        <v>1.016048844566676</v>
       </c>
       <c r="L23">
-        <v>0.9913530680127393</v>
+        <v>1.000738957935913</v>
       </c>
       <c r="M23">
-        <v>1.003666129004571</v>
+        <v>1.012195813459887</v>
       </c>
       <c r="N23">
-        <v>0.9966411804997397</v>
+        <v>1.006174355304025</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.976821849450121</v>
+        <v>0.9817677548558396</v>
       </c>
       <c r="D24">
-        <v>1.003318971745527</v>
+        <v>1.00733675470769</v>
       </c>
       <c r="E24">
-        <v>0.9866257216064327</v>
+        <v>0.9917483438082907</v>
       </c>
       <c r="F24">
-        <v>1.000276298672616</v>
+        <v>1.004588526625481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039650120655612</v>
+        <v>1.041682614402544</v>
       </c>
       <c r="J24">
-        <v>1.005242271029028</v>
+        <v>1.009986165271262</v>
       </c>
       <c r="K24">
-        <v>1.017288052141365</v>
+        <v>1.021236242195577</v>
       </c>
       <c r="L24">
-        <v>1.000891847158535</v>
+        <v>1.0059219341315</v>
       </c>
       <c r="M24">
-        <v>1.014298563933371</v>
+        <v>1.018535538924963</v>
       </c>
       <c r="N24">
-        <v>1.006669830356789</v>
+        <v>1.011420461472979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912694152738403</v>
+        <v>0.9909520128444698</v>
       </c>
       <c r="D25">
-        <v>1.014848083723396</v>
+        <v>1.01458960639119</v>
       </c>
       <c r="E25">
-        <v>0.9986189603366808</v>
+        <v>0.9990621010863853</v>
       </c>
       <c r="F25">
-        <v>1.013443329882352</v>
+        <v>1.013166385351401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044708516541932</v>
+        <v>1.044577502676584</v>
       </c>
       <c r="J25">
-        <v>1.016094213548132</v>
+        <v>1.015787762305332</v>
       </c>
       <c r="K25">
-        <v>1.027220193439632</v>
+        <v>1.026965581883995</v>
       </c>
       <c r="L25">
-        <v>1.011238753064451</v>
+        <v>1.011674994196189</v>
       </c>
       <c r="M25">
-        <v>1.025836479283505</v>
+        <v>1.02556369144943</v>
       </c>
       <c r="N25">
-        <v>1.017537183879006</v>
+        <v>1.01723029744029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979702577795394</v>
+        <v>0.9965504262512137</v>
       </c>
       <c r="D2">
-        <v>1.020135657647516</v>
+        <v>1.01967763855808</v>
       </c>
       <c r="E2">
-        <v>1.00467787363972</v>
+        <v>1.003515104912208</v>
       </c>
       <c r="F2">
-        <v>1.019737570609146</v>
+        <v>1.025258259029327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046735415138606</v>
+        <v>1.046502913920902</v>
       </c>
       <c r="J2">
-        <v>1.020211848037368</v>
+        <v>1.018834805296562</v>
       </c>
       <c r="K2">
-        <v>1.031321420976673</v>
+        <v>1.030869474000288</v>
       </c>
       <c r="L2">
-        <v>1.016072420694199</v>
+        <v>1.014925685003977</v>
       </c>
       <c r="M2">
-        <v>1.030928611122686</v>
+        <v>1.03637657351699</v>
       </c>
       <c r="N2">
-        <v>1.021660665881513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010279147578067</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037362001425594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002903581793192</v>
+        <v>1.000280801987744</v>
       </c>
       <c r="D3">
-        <v>1.024034810450272</v>
+        <v>1.022321349000891</v>
       </c>
       <c r="E3">
-        <v>1.008639694691195</v>
+        <v>1.006430153418788</v>
       </c>
       <c r="F3">
-        <v>1.024364929033725</v>
+        <v>1.02799216332048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048219690970432</v>
+        <v>1.047348956484146</v>
       </c>
       <c r="J3">
-        <v>1.023315403996737</v>
+        <v>1.020763814983795</v>
       </c>
       <c r="K3">
-        <v>1.034369127012081</v>
+        <v>1.032676373115379</v>
       </c>
       <c r="L3">
-        <v>1.01916320976894</v>
+        <v>1.016981415083644</v>
       </c>
       <c r="M3">
-        <v>1.034695265920714</v>
+        <v>1.038278981613202</v>
       </c>
       <c r="N3">
-        <v>1.02476862924633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010923550717573</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038867634885684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006025232528874</v>
+        <v>1.002650557182024</v>
       </c>
       <c r="D4">
-        <v>1.026501931013967</v>
+        <v>1.024000984728461</v>
       </c>
       <c r="E4">
-        <v>1.011152876183337</v>
+        <v>1.008287851011204</v>
       </c>
       <c r="F4">
-        <v>1.027296458396378</v>
+        <v>1.029734064366983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049143426202141</v>
+        <v>1.047871613602568</v>
       </c>
       <c r="J4">
-        <v>1.025276057992839</v>
+        <v>1.021986703596448</v>
       </c>
       <c r="K4">
-        <v>1.036290686311329</v>
+        <v>1.033818118070694</v>
       </c>
       <c r="L4">
-        <v>1.021118533886303</v>
+        <v>1.018287267599486</v>
       </c>
       <c r="M4">
-        <v>1.037076233891605</v>
+        <v>1.039486396369203</v>
       </c>
       <c r="N4">
-        <v>1.026732067595996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011331981060076</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039823224244311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00732133575515</v>
+        <v>1.003636560421438</v>
       </c>
       <c r="D5">
-        <v>1.027526176866503</v>
+        <v>1.024699839422003</v>
       </c>
       <c r="E5">
-        <v>1.012197796886018</v>
+        <v>1.009062176521922</v>
       </c>
       <c r="F5">
-        <v>1.028514410495964</v>
+        <v>1.030460024618584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049523190048264</v>
+        <v>1.04808547489419</v>
       </c>
       <c r="J5">
-        <v>1.026089314783666</v>
+        <v>1.022494882954906</v>
       </c>
       <c r="K5">
-        <v>1.037086794004575</v>
+        <v>1.034291662669704</v>
       </c>
       <c r="L5">
-        <v>1.021930235511066</v>
+        <v>1.018830557418822</v>
       </c>
       <c r="M5">
-        <v>1.03806416607769</v>
+        <v>1.039988470942904</v>
       </c>
       <c r="N5">
-        <v>1.027546479304748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011501684649096</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040220582870076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00753802313358</v>
+        <v>1.003801522697827</v>
       </c>
       <c r="D6">
-        <v>1.027697406540911</v>
+        <v>1.02481675882842</v>
       </c>
       <c r="E6">
-        <v>1.012372574598522</v>
+        <v>1.009191804307891</v>
       </c>
       <c r="F6">
-        <v>1.028718077152588</v>
+        <v>1.030581549511233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049586457123241</v>
+        <v>1.04812104128444</v>
       </c>
       <c r="J6">
-        <v>1.026225229735997</v>
+        <v>1.022579865030171</v>
       </c>
       <c r="K6">
-        <v>1.037219787527169</v>
+        <v>1.0343707984644</v>
       </c>
       <c r="L6">
-        <v>1.022065929092317</v>
+        <v>1.018921448352091</v>
       </c>
       <c r="M6">
-        <v>1.038229293082034</v>
+        <v>1.040072451030851</v>
       </c>
       <c r="N6">
-        <v>1.027682587271901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011530062571205</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040287047501696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006042614098256</v>
+        <v>1.002663772055781</v>
       </c>
       <c r="D7">
-        <v>1.026515667272294</v>
+        <v>1.024010351190771</v>
       </c>
       <c r="E7">
-        <v>1.011166883559997</v>
+        <v>1.008298223483874</v>
       </c>
       <c r="F7">
-        <v>1.027312788862951</v>
+        <v>1.029743789370719</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049148534047917</v>
+        <v>1.047874494176124</v>
       </c>
       <c r="J7">
-        <v>1.025286967509416</v>
+        <v>1.021993517010342</v>
       </c>
       <c r="K7">
-        <v>1.036301369492718</v>
+        <v>1.033824470759742</v>
       </c>
       <c r="L7">
-        <v>1.021129419949739</v>
+        <v>1.018294549246552</v>
       </c>
       <c r="M7">
-        <v>1.037089485292693</v>
+        <v>1.039493126657732</v>
       </c>
       <c r="N7">
-        <v>1.026742992605338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.0113342564508</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039828550821417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9996525056413585</v>
+        <v>0.997820431122505</v>
       </c>
       <c r="D8">
-        <v>1.021465245610352</v>
+        <v>1.020577616094626</v>
       </c>
       <c r="E8">
-        <v>1.006027494383423</v>
+        <v>1.004506278227261</v>
       </c>
       <c r="F8">
-        <v>1.021314723033789</v>
+        <v>1.026187906265444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047244760022453</v>
+        <v>1.046794014441925</v>
       </c>
       <c r="J8">
-        <v>1.021270792775075</v>
+        <v>1.019492047508469</v>
       </c>
       <c r="K8">
-        <v>1.032362099346478</v>
+        <v>1.031485882019288</v>
       </c>
       <c r="L8">
-        <v>1.017126433775211</v>
+        <v>1.015625553150907</v>
       </c>
       <c r="M8">
-        <v>1.032213510281421</v>
+        <v>1.03702445564055</v>
       </c>
       <c r="N8">
-        <v>1.022721114442213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010498722530183</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037874758747889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987820965150715</v>
+        <v>0.9889342233372704</v>
       </c>
       <c r="D9">
-        <v>1.012116205377978</v>
+        <v>1.014283472940269</v>
       </c>
       <c r="E9">
-        <v>0.9965643035262223</v>
+        <v>0.9975973875935868</v>
       </c>
       <c r="F9">
-        <v>1.010239317451704</v>
+        <v>1.019706931161316</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043599006588508</v>
+        <v>1.04469685327536</v>
       </c>
       <c r="J9">
-        <v>1.013811250380986</v>
+        <v>1.014883886695015</v>
       </c>
       <c r="K9">
-        <v>1.025015717280749</v>
+        <v>1.027148984741923</v>
       </c>
       <c r="L9">
-        <v>1.009713369542628</v>
+        <v>1.01072956615428</v>
       </c>
       <c r="M9">
-        <v>1.023168424892509</v>
+        <v>1.032488168495568</v>
       </c>
       <c r="N9">
-        <v>1.015250978642303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008958898350779</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034284569416353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9795023751990136</v>
+        <v>0.9827981728948162</v>
       </c>
       <c r="D10">
-        <v>1.005549052027008</v>
+        <v>1.009964944170253</v>
       </c>
       <c r="E10">
-        <v>0.9899503579932039</v>
+        <v>0.9928671624953852</v>
       </c>
       <c r="F10">
-        <v>1.002476520100139</v>
+        <v>1.015345015141716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040957684024391</v>
+        <v>1.043190979202282</v>
       </c>
       <c r="J10">
-        <v>1.008553530376559</v>
+        <v>1.011711305531841</v>
       </c>
       <c r="K10">
-        <v>1.019818834239018</v>
+        <v>1.024156579567576</v>
       </c>
       <c r="L10">
-        <v>1.004503463880396</v>
+        <v>1.007366407954913</v>
       </c>
       <c r="M10">
-        <v>1.016801203715055</v>
+        <v>1.029442629746291</v>
       </c>
       <c r="N10">
-        <v>1.0099857920724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007902515930827</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03192605516429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,81 +856,93 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9757866493824767</v>
+        <v>0.9804297739391461</v>
       </c>
       <c r="D11">
-        <v>1.002618195686111</v>
+        <v>1.008467671591541</v>
       </c>
       <c r="E11">
-        <v>0.9870063569402063</v>
+        <v>0.9910948758418584</v>
       </c>
       <c r="F11">
-        <v>0.999015672434273</v>
+        <v>1.014312572689983</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039760243877192</v>
+        <v>1.042716532824323</v>
       </c>
       <c r="J11">
-        <v>1.006202615400218</v>
+        <v>1.010639985031085</v>
       </c>
       <c r="K11">
-        <v>1.017490905003577</v>
+        <v>1.023231647460608</v>
       </c>
       <c r="L11">
-        <v>1.002177546118171</v>
+        <v>1.006186706700234</v>
       </c>
       <c r="M11">
-        <v>1.013956175635651</v>
+        <v>1.02896952985712</v>
       </c>
       <c r="N11">
-        <v>1.007631538527139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00758042483081</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031991146374953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9743883082855558</v>
+        <v>0.9796571866001912</v>
       </c>
       <c r="D12">
-        <v>1.001515707727761</v>
+        <v>1.008042591821632</v>
       </c>
       <c r="E12">
-        <v>0.9859000713215383</v>
+        <v>0.9905363670726052</v>
       </c>
       <c r="F12">
-        <v>0.9977143248713002</v>
+        <v>1.014236231134556</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039307043132872</v>
+        <v>1.042604862839547</v>
       </c>
       <c r="J12">
-        <v>1.005317593410236</v>
+        <v>1.010348160102619</v>
       </c>
       <c r="K12">
-        <v>1.016613926667682</v>
+        <v>1.023017313677011</v>
       </c>
       <c r="L12">
-        <v>1.001302482710857</v>
+        <v>1.005847149357928</v>
       </c>
       <c r="M12">
-        <v>1.012885446211343</v>
+        <v>1.029095677032134</v>
       </c>
       <c r="N12">
-        <v>1.006745259704418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00751139063331</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03241948441303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9746890968819478</v>
+        <v>0.9800659774674828</v>
       </c>
       <c r="D13">
-        <v>1.001752833674896</v>
+        <v>1.008420534559022</v>
       </c>
       <c r="E13">
-        <v>0.9861379625208417</v>
+        <v>0.9908760912286171</v>
       </c>
       <c r="F13">
-        <v>0.9979941998641882</v>
+        <v>1.014906724234378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039404643023032</v>
+        <v>1.042773816172696</v>
       </c>
       <c r="J13">
-        <v>1.005507977645991</v>
+        <v>1.010642808744949</v>
       </c>
       <c r="K13">
-        <v>1.016802607705108</v>
+        <v>1.023344670932014</v>
       </c>
       <c r="L13">
-        <v>1.00149069983347</v>
+        <v>1.006135574284053</v>
       </c>
       <c r="M13">
-        <v>1.013115765539184</v>
+        <v>1.029710706481051</v>
       </c>
       <c r="N13">
-        <v>1.006935914307626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007634432787137</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033184011579393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756714389218043</v>
+        <v>0.9808853568945221</v>
       </c>
       <c r="D14">
-        <v>1.002527350395739</v>
+        <v>1.009046325026314</v>
       </c>
       <c r="E14">
-        <v>0.9869151755077089</v>
+        <v>0.9915190076013765</v>
       </c>
       <c r="F14">
-        <v>0.9989084310233913</v>
+        <v>1.015711268724584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039722955986345</v>
+        <v>1.043017583130743</v>
       </c>
       <c r="J14">
-        <v>1.006129703466303</v>
+        <v>1.011112354744801</v>
       </c>
       <c r="K14">
-        <v>1.017418667981353</v>
+        <v>1.023816381648148</v>
       </c>
       <c r="L14">
-        <v>1.0021054434506</v>
+        <v>1.006619836577588</v>
       </c>
       <c r="M14">
-        <v>1.013867958065906</v>
+        <v>1.030359442225489</v>
       </c>
       <c r="N14">
-        <v>1.007558523049916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007806618433488</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033870956777768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9762742530891504</v>
+        <v>0.98134570291517</v>
       </c>
       <c r="D15">
-        <v>1.003002699287652</v>
+        <v>1.009379971156573</v>
       </c>
       <c r="E15">
-        <v>0.9873923299052034</v>
+        <v>0.9918749459492395</v>
       </c>
       <c r="F15">
-        <v>0.9994695931282953</v>
+        <v>1.016085031688167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039917952816664</v>
+        <v>1.043141325821852</v>
       </c>
       <c r="J15">
-        <v>1.006511187727781</v>
+        <v>1.011359727593634</v>
       </c>
       <c r="K15">
-        <v>1.017796596338659</v>
+        <v>1.024056179594509</v>
       </c>
       <c r="L15">
-        <v>1.002482715888041</v>
+        <v>1.006878943000236</v>
       </c>
       <c r="M15">
-        <v>1.014329535805111</v>
+        <v>1.030639572696914</v>
       </c>
       <c r="N15">
-        <v>1.007940549062802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007892303123918</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034130062333832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9797464903381412</v>
+        <v>0.983868630418111</v>
       </c>
       <c r="D16">
-        <v>1.00574166421118</v>
+        <v>1.011146410978524</v>
       </c>
       <c r="E16">
-        <v>0.9901439937962416</v>
+        <v>0.9938086547876578</v>
       </c>
       <c r="F16">
-        <v>1.002704034701587</v>
+        <v>1.017840720855642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041035993246728</v>
+        <v>1.043769580880824</v>
       </c>
       <c r="J16">
-        <v>1.008707935331031</v>
+        <v>1.012658329727042</v>
       </c>
       <c r="K16">
-        <v>1.019971643812437</v>
+        <v>1.025281192880229</v>
       </c>
       <c r="L16">
-        <v>1.004656302680054</v>
+        <v>1.00825359355154</v>
       </c>
       <c r="M16">
-        <v>1.016988103252453</v>
+        <v>1.031859403116711</v>
       </c>
       <c r="N16">
-        <v>1.010140416299619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008319844138588</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035055332359074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9818933579014913</v>
+        <v>0.9853758716525125</v>
       </c>
       <c r="D17">
-        <v>1.007435890243876</v>
+        <v>1.0121736547188</v>
       </c>
       <c r="E17">
-        <v>0.9918481015373334</v>
+        <v>0.9949577720801499</v>
       </c>
       <c r="F17">
-        <v>1.004705670400371</v>
+        <v>1.018760943071347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041722689637663</v>
+        <v>1.044119909418056</v>
       </c>
       <c r="J17">
-        <v>1.010065580967771</v>
+        <v>1.013407869903232</v>
       </c>
       <c r="K17">
-        <v>1.021314785536579</v>
+        <v>1.025971550185035</v>
       </c>
       <c r="L17">
-        <v>1.006000588902895</v>
+        <v>1.009054791210946</v>
       </c>
       <c r="M17">
-        <v>1.018631692182566</v>
+        <v>1.032447831370795</v>
       </c>
       <c r="N17">
-        <v>1.011499989948886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008557291463308</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035390844349778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9831346936172651</v>
+        <v>0.9861433377031218</v>
       </c>
       <c r="D18">
-        <v>1.008415738937443</v>
+        <v>1.012642861923466</v>
       </c>
       <c r="E18">
-        <v>0.9928343995841949</v>
+        <v>0.9955286371774513</v>
       </c>
       <c r="F18">
-        <v>1.005863653135286</v>
+        <v>1.019000580926822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04211806860957</v>
+        <v>1.044257416616389</v>
       </c>
       <c r="J18">
-        <v>1.010850349877117</v>
+        <v>1.013740251021443</v>
       </c>
       <c r="K18">
-        <v>1.022090769915853</v>
+        <v>1.0262468741688</v>
       </c>
       <c r="L18">
-        <v>1.006777977675165</v>
+        <v>1.009425001120639</v>
       </c>
       <c r="M18">
-        <v>1.019581934109297</v>
+        <v>1.03249920601162</v>
       </c>
       <c r="N18">
-        <v>1.012285873320098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008647522125487</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035192596733854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835561399949778</v>
+        <v>0.9862229767125288</v>
       </c>
       <c r="D19">
-        <v>1.008748444519956</v>
+        <v>1.012587083320419</v>
       </c>
       <c r="E19">
-        <v>0.993169420050827</v>
+        <v>0.9955596465624328</v>
       </c>
       <c r="F19">
-        <v>1.006256903366669</v>
+        <v>1.018600620085553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042252017558573</v>
+        <v>1.044194901088086</v>
       </c>
       <c r="J19">
-        <v>1.011116745876214</v>
+        <v>1.013679023429425</v>
       </c>
       <c r="K19">
-        <v>1.02235411526311</v>
+        <v>1.02612863008623</v>
       </c>
       <c r="L19">
-        <v>1.007041926328125</v>
+        <v>1.009390511395617</v>
       </c>
       <c r="M19">
-        <v>1.019904532794507</v>
+        <v>1.032042960611945</v>
       </c>
       <c r="N19">
-        <v>1.01255264763207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008600500669184</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034504473327117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9816641537920372</v>
+        <v>0.9843894605458761</v>
       </c>
       <c r="D20">
-        <v>1.007254986129327</v>
+        <v>1.011085308373909</v>
       </c>
       <c r="E20">
-        <v>0.9916660661932166</v>
+        <v>0.9940914462204622</v>
       </c>
       <c r="F20">
-        <v>1.00449190652059</v>
+        <v>1.016477789237114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04164954968964</v>
+        <v>1.043587496057349</v>
       </c>
       <c r="J20">
-        <v>1.009920659558991</v>
+        <v>1.012535694139286</v>
       </c>
       <c r="K20">
-        <v>1.021171453770387</v>
+        <v>1.024935996951891</v>
       </c>
       <c r="L20">
-        <v>1.005857058001091</v>
+        <v>1.008238992219765</v>
       </c>
       <c r="M20">
-        <v>1.018456228363283</v>
+        <v>1.030236955245586</v>
       </c>
       <c r="N20">
-        <v>1.011354862735084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008177202892431</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032544052107865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9753826738709541</v>
+        <v>0.9797124889477113</v>
       </c>
       <c r="D21">
-        <v>1.002299662664072</v>
+        <v>1.007763621143043</v>
       </c>
       <c r="E21">
-        <v>0.9866866637126345</v>
+        <v>0.9904901947869726</v>
       </c>
       <c r="F21">
-        <v>0.998639657303158</v>
+        <v>1.013039175695291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039629456049186</v>
+        <v>1.042390669446871</v>
       </c>
       <c r="J21">
-        <v>1.005946951382088</v>
+        <v>1.010083611878275</v>
       </c>
       <c r="K21">
-        <v>1.017237597816433</v>
+        <v>1.022599387142727</v>
       </c>
       <c r="L21">
-        <v>1.00192472861737</v>
+        <v>1.005654001258724</v>
       </c>
       <c r="M21">
-        <v>1.013646847706404</v>
+        <v>1.02777765724504</v>
       </c>
       <c r="N21">
-        <v>1.007375511436779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007354338972657</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030556473169209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9713276237404657</v>
+        <v>0.9767340929428795</v>
       </c>
       <c r="D22">
-        <v>0.9991035905491469</v>
+        <v>1.00566158380727</v>
       </c>
       <c r="E22">
-        <v>0.9834817376235103</v>
+        <v>0.9882078265438736</v>
       </c>
       <c r="F22">
-        <v>0.9948680115329958</v>
+        <v>1.010898142463487</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038310446498432</v>
+        <v>1.04162207623553</v>
       </c>
       <c r="J22">
-        <v>1.003379977184668</v>
+        <v>1.008530537821119</v>
       </c>
       <c r="K22">
-        <v>1.014692826426264</v>
+        <v>1.021121711814527</v>
       </c>
       <c r="L22">
-        <v>0.9993876836509038</v>
+        <v>1.004016564967504</v>
       </c>
       <c r="M22">
-        <v>1.010541824299273</v>
+        <v>1.026256753032567</v>
       </c>
       <c r="N22">
-        <v>1.004804891841562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006835135025749</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029352761503698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9734876758043441</v>
+        <v>0.9783188705605407</v>
       </c>
       <c r="D23">
-        <v>1.000805775176772</v>
+        <v>1.006779802166111</v>
       </c>
       <c r="E23">
-        <v>0.9851880145398525</v>
+        <v>0.9894214719160922</v>
       </c>
       <c r="F23">
-        <v>0.9968764767518501</v>
+        <v>1.012036609491247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039014435990129</v>
+        <v>1.042032361354575</v>
       </c>
       <c r="J23">
-        <v>1.00474749860985</v>
+        <v>1.009357045227024</v>
       </c>
       <c r="K23">
-        <v>1.016048844566676</v>
+        <v>1.021908407839549</v>
       </c>
       <c r="L23">
-        <v>1.000738957935913</v>
+        <v>1.004887698503341</v>
       </c>
       <c r="M23">
-        <v>1.012195813459887</v>
+        <v>1.02706595295552</v>
       </c>
       <c r="N23">
-        <v>1.006174355304025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007111445203184</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029993198800525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9817677548558396</v>
+        <v>0.9844305003427298</v>
       </c>
       <c r="D24">
-        <v>1.00733675470769</v>
+        <v>1.011097347418781</v>
       </c>
       <c r="E24">
-        <v>0.9917483438082907</v>
+        <v>0.9941186201144547</v>
       </c>
       <c r="F24">
-        <v>1.004588526625481</v>
+        <v>1.016443204688756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041682614402544</v>
+        <v>1.043585317330338</v>
       </c>
       <c r="J24">
-        <v>1.009986165271262</v>
+        <v>1.012541344471122</v>
       </c>
       <c r="K24">
-        <v>1.021236242195577</v>
+        <v>1.024932344138654</v>
       </c>
       <c r="L24">
-        <v>1.0059219341315</v>
+        <v>1.008249812642232</v>
       </c>
       <c r="M24">
-        <v>1.018535538924963</v>
+        <v>1.030187584085104</v>
       </c>
       <c r="N24">
-        <v>1.011420461472979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008175919560968</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.0324637928673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909520128444698</v>
+        <v>0.9912752807695425</v>
       </c>
       <c r="D25">
-        <v>1.01458960639119</v>
+        <v>1.015940837990877</v>
       </c>
       <c r="E25">
-        <v>0.9990621010863853</v>
+        <v>0.9994116395432626</v>
       </c>
       <c r="F25">
-        <v>1.013166385351401</v>
+        <v>1.021408980144442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044577502676584</v>
+        <v>1.045262412447654</v>
       </c>
       <c r="J25">
-        <v>1.015787762305332</v>
+        <v>1.01609987676194</v>
       </c>
       <c r="K25">
-        <v>1.026965581883995</v>
+        <v>1.028296632164196</v>
       </c>
       <c r="L25">
-        <v>1.011674994196189</v>
+        <v>1.012019095921323</v>
       </c>
       <c r="M25">
-        <v>1.02556369144943</v>
+        <v>1.033683797320442</v>
       </c>
       <c r="N25">
-        <v>1.01723029744029</v>
+        <v>1.009365285727958</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035230837084934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965504262512137</v>
+        <v>0.9968183631468203</v>
       </c>
       <c r="D2">
-        <v>1.01967763855808</v>
+        <v>1.019628867540573</v>
       </c>
       <c r="E2">
-        <v>1.003515104912208</v>
+        <v>1.003748426282334</v>
       </c>
       <c r="F2">
-        <v>1.025258259029327</v>
+        <v>1.025275490793563</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046502913920902</v>
+        <v>1.046478156816296</v>
       </c>
       <c r="J2">
-        <v>1.018834805296562</v>
+        <v>1.019094654659556</v>
       </c>
       <c r="K2">
-        <v>1.030869474000288</v>
+        <v>1.030821349959852</v>
       </c>
       <c r="L2">
-        <v>1.014925685003977</v>
+        <v>1.015155785426892</v>
       </c>
       <c r="M2">
-        <v>1.03637657351699</v>
+        <v>1.036393579817302</v>
       </c>
       <c r="N2">
-        <v>1.010279147578067</v>
+        <v>1.012330829967796</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037362001425594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037375460830858</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020345440665801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000280801987744</v>
+        <v>1.000393068954717</v>
       </c>
       <c r="D3">
-        <v>1.022321349000891</v>
+        <v>1.022066777442308</v>
       </c>
       <c r="E3">
-        <v>1.006430153418788</v>
+        <v>1.006528677534687</v>
       </c>
       <c r="F3">
-        <v>1.02799216332048</v>
+        <v>1.02786036052182</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047348956484146</v>
+        <v>1.047219593961909</v>
       </c>
       <c r="J3">
-        <v>1.020763814983795</v>
+        <v>1.020873024246532</v>
       </c>
       <c r="K3">
-        <v>1.032676373115379</v>
+        <v>1.032424885467053</v>
       </c>
       <c r="L3">
-        <v>1.016981415083644</v>
+        <v>1.017078698733914</v>
       </c>
       <c r="M3">
-        <v>1.038278981613202</v>
+        <v>1.038148753480455</v>
       </c>
       <c r="N3">
-        <v>1.010923550717573</v>
+        <v>1.01280335057155</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038867634885684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038764567808637</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020669011439057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002650557182024</v>
+        <v>1.002665052561547</v>
       </c>
       <c r="D4">
-        <v>1.024000984728461</v>
+        <v>1.023616497865061</v>
       </c>
       <c r="E4">
-        <v>1.008287851011204</v>
+        <v>1.008301568869757</v>
       </c>
       <c r="F4">
-        <v>1.029734064366983</v>
+        <v>1.029508325541422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047871613602568</v>
+        <v>1.04767609745648</v>
       </c>
       <c r="J4">
-        <v>1.021986703596448</v>
+        <v>1.022000830833857</v>
       </c>
       <c r="K4">
-        <v>1.033818118070694</v>
+        <v>1.033438009118314</v>
       </c>
       <c r="L4">
-        <v>1.018287267599486</v>
+        <v>1.018300823252965</v>
       </c>
       <c r="M4">
-        <v>1.039486396369203</v>
+        <v>1.039263192272571</v>
       </c>
       <c r="N4">
-        <v>1.011331981060076</v>
+        <v>1.013102977724602</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039823224244311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039646572979456</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020870780475534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003636560421438</v>
+        <v>1.003610627528427</v>
       </c>
       <c r="D5">
-        <v>1.024699839422003</v>
+        <v>1.024261485364789</v>
       </c>
       <c r="E5">
-        <v>1.009062176521922</v>
+        <v>1.009040796541466</v>
       </c>
       <c r="F5">
-        <v>1.030460024618584</v>
+        <v>1.030195369344453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04808547489419</v>
+        <v>1.047862500774685</v>
       </c>
       <c r="J5">
-        <v>1.022494882954906</v>
+        <v>1.022469589051879</v>
       </c>
       <c r="K5">
-        <v>1.034291662669704</v>
+        <v>1.033858167529828</v>
       </c>
       <c r="L5">
-        <v>1.018830557418822</v>
+        <v>1.018809423454694</v>
       </c>
       <c r="M5">
-        <v>1.039988470942904</v>
+        <v>1.039726708487416</v>
       </c>
       <c r="N5">
-        <v>1.011501684649096</v>
+        <v>1.013227504350828</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040220582870076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040013415327063</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020953809278195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,93 +663,111 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003801522697827</v>
+        <v>1.003768840368931</v>
       </c>
       <c r="D6">
-        <v>1.02481675882842</v>
+        <v>1.024369403342545</v>
       </c>
       <c r="E6">
-        <v>1.009191804307891</v>
+        <v>1.009164563103982</v>
       </c>
       <c r="F6">
-        <v>1.030581549511233</v>
+        <v>1.030310392990173</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04812104128444</v>
+        <v>1.047893477155815</v>
       </c>
       <c r="J6">
-        <v>1.022579865030171</v>
+        <v>1.022547983873925</v>
       </c>
       <c r="K6">
-        <v>1.0343707984644</v>
+        <v>1.033928379098244</v>
       </c>
       <c r="L6">
-        <v>1.018921448352091</v>
+        <v>1.018894519163614</v>
       </c>
       <c r="M6">
-        <v>1.040072451030851</v>
+        <v>1.039804244882229</v>
       </c>
       <c r="N6">
-        <v>1.011530062571205</v>
+        <v>1.013248329517885</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040287047501696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040074780223738</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020967645639371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.002663772055781</v>
+        <v>1.002685211479228</v>
       </c>
       <c r="D7">
-        <v>1.024010351190771</v>
+        <v>1.023630396550087</v>
       </c>
       <c r="E7">
-        <v>1.008298223483874</v>
+        <v>1.008318130902986</v>
       </c>
       <c r="F7">
-        <v>1.029743789370719</v>
+        <v>1.02952198681965</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047874494176124</v>
+        <v>1.047681281944158</v>
       </c>
       <c r="J7">
-        <v>1.021993517010342</v>
+        <v>1.022014412156077</v>
       </c>
       <c r="K7">
-        <v>1.033824470759742</v>
+        <v>1.033448840858346</v>
       </c>
       <c r="L7">
-        <v>1.018294549246552</v>
+        <v>1.018314221359656</v>
       </c>
       <c r="M7">
-        <v>1.039493126657732</v>
+        <v>1.039273813736631</v>
       </c>
       <c r="N7">
-        <v>1.0113342564508</v>
+        <v>1.013132479340047</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039828550821417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03965497916603</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020873396778795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997820431122505</v>
+        <v>0.9980581379262838</v>
       </c>
       <c r="D8">
-        <v>1.020577616094626</v>
+        <v>1.020474771291883</v>
       </c>
       <c r="E8">
-        <v>1.004506278227261</v>
+        <v>1.004714019116911</v>
       </c>
       <c r="F8">
-        <v>1.026187906265444</v>
+        <v>1.026167961478119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046794014441925</v>
+        <v>1.046741789828466</v>
       </c>
       <c r="J8">
-        <v>1.019492047508469</v>
+        <v>1.019722819820787</v>
       </c>
       <c r="K8">
-        <v>1.031485882019288</v>
+        <v>1.031384361089773</v>
       </c>
       <c r="L8">
-        <v>1.015625553150907</v>
+        <v>1.015830512411463</v>
       </c>
       <c r="M8">
-        <v>1.03702445564055</v>
+        <v>1.037004764073775</v>
       </c>
       <c r="N8">
-        <v>1.010498722530183</v>
+        <v>1.012576452841274</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037874758747889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037859174135864</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020461000132939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9889342233372704</v>
+        <v>0.9895532501767668</v>
       </c>
       <c r="D9">
-        <v>1.014283472940269</v>
+        <v>1.014678363151257</v>
       </c>
       <c r="E9">
-        <v>0.9975973875935868</v>
+        <v>0.9981343909798444</v>
       </c>
       <c r="F9">
-        <v>1.019706931161316</v>
+        <v>1.020048673985851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04469685327536</v>
+        <v>1.044896897979984</v>
       </c>
       <c r="J9">
-        <v>1.014883886695015</v>
+        <v>1.015480381253977</v>
       </c>
       <c r="K9">
-        <v>1.027148984741923</v>
+        <v>1.027537699917069</v>
       </c>
       <c r="L9">
-        <v>1.01072956615428</v>
+        <v>1.011257809080896</v>
       </c>
       <c r="M9">
-        <v>1.032488168495568</v>
+        <v>1.032824639339241</v>
       </c>
       <c r="N9">
-        <v>1.008958898350779</v>
+        <v>1.011458575289644</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034284569416353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034550865801627</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019670069935937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9827981728948162</v>
+        <v>0.9837185550647418</v>
       </c>
       <c r="D10">
-        <v>1.009964944170253</v>
+        <v>1.010729081392908</v>
       </c>
       <c r="E10">
-        <v>0.9928671624953852</v>
+        <v>0.993663863837967</v>
       </c>
       <c r="F10">
-        <v>1.015345015141716</v>
+        <v>1.015958852890426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043190979202282</v>
+        <v>1.043577477739075</v>
       </c>
       <c r="J10">
-        <v>1.011711305531841</v>
+        <v>1.012593378521036</v>
       </c>
       <c r="K10">
-        <v>1.024156579567576</v>
+        <v>1.024907283881762</v>
       </c>
       <c r="L10">
-        <v>1.007366407954913</v>
+        <v>1.008148469374296</v>
       </c>
       <c r="M10">
-        <v>1.029442629746291</v>
+        <v>1.03004582211113</v>
       </c>
       <c r="N10">
-        <v>1.007902515930827</v>
+        <v>1.010811327059255</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03192605516429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03240341686193</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019121395340786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9804297739391461</v>
+        <v>0.981499295078254</v>
       </c>
       <c r="D11">
-        <v>1.008467671591541</v>
+        <v>1.009388502351849</v>
       </c>
       <c r="E11">
-        <v>0.9910948758418584</v>
+        <v>0.9920191527027438</v>
       </c>
       <c r="F11">
-        <v>1.014312572689983</v>
+        <v>1.015045699146031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042716532824323</v>
+        <v>1.04318198661309</v>
       </c>
       <c r="J11">
-        <v>1.010639985031085</v>
+        <v>1.01166250573848</v>
       </c>
       <c r="K11">
-        <v>1.023231647460608</v>
+        <v>1.024135510871386</v>
       </c>
       <c r="L11">
-        <v>1.006186706700234</v>
+        <v>1.007093162037631</v>
       </c>
       <c r="M11">
-        <v>1.02896952985712</v>
+        <v>1.029689346100841</v>
       </c>
       <c r="N11">
-        <v>1.00758042483081</v>
+        <v>1.010817493975597</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031991146374953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032560512658209</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018988826679537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9796571866001912</v>
+        <v>0.9807750584826435</v>
       </c>
       <c r="D12">
-        <v>1.008042591821632</v>
+        <v>1.009011311662084</v>
       </c>
       <c r="E12">
-        <v>0.9905363670726052</v>
+        <v>0.9915009570518397</v>
       </c>
       <c r="F12">
-        <v>1.014236231134556</v>
+        <v>1.015006365517152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042604862839547</v>
+        <v>1.04309440986362</v>
       </c>
       <c r="J12">
-        <v>1.010348160102619</v>
+        <v>1.011415941942182</v>
       </c>
       <c r="K12">
-        <v>1.023017313677011</v>
+        <v>1.023967881833199</v>
       </c>
       <c r="L12">
-        <v>1.005847149357928</v>
+        <v>1.006792817044598</v>
       </c>
       <c r="M12">
-        <v>1.029095677032134</v>
+        <v>1.029851605829175</v>
       </c>
       <c r="N12">
-        <v>1.00751139063331</v>
+        <v>1.010873196979375</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03241948441303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033017210299347</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018972698007337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9800659774674828</v>
+        <v>0.9811471083634065</v>
       </c>
       <c r="D13">
-        <v>1.008420534559022</v>
+        <v>1.009348788954421</v>
       </c>
       <c r="E13">
-        <v>0.9908760912286171</v>
+        <v>0.9918073879440638</v>
       </c>
       <c r="F13">
-        <v>1.014906724234378</v>
+        <v>1.015646542964798</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042773816172696</v>
+        <v>1.043242942854847</v>
       </c>
       <c r="J13">
-        <v>1.010642808744949</v>
+        <v>1.011675729081689</v>
       </c>
       <c r="K13">
-        <v>1.023344670932014</v>
+        <v>1.024255606230357</v>
       </c>
       <c r="L13">
-        <v>1.006135574284053</v>
+        <v>1.007048678956616</v>
       </c>
       <c r="M13">
-        <v>1.029710706481051</v>
+        <v>1.030436947346262</v>
       </c>
       <c r="N13">
-        <v>1.007634432787137</v>
+        <v>1.010936275772147</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033184011579393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033758116845686</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019046933998119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9808853568945221</v>
+        <v>0.981903340256772</v>
       </c>
       <c r="D14">
-        <v>1.009046325026314</v>
+        <v>1.009907218690832</v>
       </c>
       <c r="E14">
-        <v>0.9915190076013765</v>
+        <v>0.9923948018382172</v>
       </c>
       <c r="F14">
-        <v>1.015711268724584</v>
+        <v>1.016400217017883</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043017583130743</v>
+        <v>1.043452743490582</v>
       </c>
       <c r="J14">
-        <v>1.011112354744801</v>
+        <v>1.01208559433812</v>
       </c>
       <c r="K14">
-        <v>1.023816381648148</v>
+        <v>1.024661414095084</v>
       </c>
       <c r="L14">
-        <v>1.006619836577588</v>
+        <v>1.007478739741796</v>
       </c>
       <c r="M14">
-        <v>1.030359442225489</v>
+        <v>1.031035910129448</v>
       </c>
       <c r="N14">
-        <v>1.007806618433488</v>
+        <v>1.010984457142288</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033870956777768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034405642949509</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019139334186926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98134570291517</v>
+        <v>0.9823299864326517</v>
       </c>
       <c r="D15">
-        <v>1.009379971156573</v>
+        <v>1.010205036591569</v>
       </c>
       <c r="E15">
-        <v>0.9918749459492395</v>
+        <v>0.9927214451806717</v>
       </c>
       <c r="F15">
-        <v>1.016085031688167</v>
+        <v>1.016746855160004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043141325821852</v>
+        <v>1.043558420429219</v>
       </c>
       <c r="J15">
-        <v>1.011359727593634</v>
+        <v>1.012301128848145</v>
       </c>
       <c r="K15">
-        <v>1.024056179594509</v>
+        <v>1.024866160271195</v>
       </c>
       <c r="L15">
-        <v>1.006878943000236</v>
+        <v>1.007709243105076</v>
       </c>
       <c r="M15">
-        <v>1.030639572696914</v>
+        <v>1.031289500030772</v>
       </c>
       <c r="N15">
-        <v>1.007892303123918</v>
+        <v>1.011002105495798</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034130062333832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034643757010661</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019183723487489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.983868630418111</v>
+        <v>0.9846819955249565</v>
       </c>
       <c r="D16">
-        <v>1.011146410978524</v>
+        <v>1.011786956908503</v>
       </c>
       <c r="E16">
-        <v>0.9938086547876578</v>
+        <v>0.9945077834721301</v>
       </c>
       <c r="F16">
-        <v>1.017840720855642</v>
+        <v>1.018362996003203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043769580880824</v>
+        <v>1.044093595483672</v>
       </c>
       <c r="J16">
-        <v>1.012658329727042</v>
+        <v>1.013438048000356</v>
       </c>
       <c r="K16">
-        <v>1.025281192880229</v>
+        <v>1.025910543717913</v>
       </c>
       <c r="L16">
-        <v>1.00825359355154</v>
+        <v>1.008939943060505</v>
       </c>
       <c r="M16">
-        <v>1.031859403116711</v>
+        <v>1.032372703400228</v>
       </c>
       <c r="N16">
-        <v>1.008319844138588</v>
+        <v>1.011093174612421</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035055332359074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.035461050349842</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019401578462663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853758716525125</v>
+        <v>0.9860993778379731</v>
       </c>
       <c r="D17">
-        <v>1.0121736547188</v>
+        <v>1.012713600605432</v>
       </c>
       <c r="E17">
-        <v>0.9949577720801499</v>
+        <v>0.9955798612754034</v>
       </c>
       <c r="F17">
-        <v>1.018760943071347</v>
+        <v>1.019207601369278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044119909418056</v>
+        <v>1.044393142140259</v>
       </c>
       <c r="J17">
-        <v>1.013407869903232</v>
+        <v>1.014102419845344</v>
       </c>
       <c r="K17">
-        <v>1.025971550185035</v>
+        <v>1.026502326915789</v>
       </c>
       <c r="L17">
-        <v>1.009054791210946</v>
+        <v>1.009665837956442</v>
       </c>
       <c r="M17">
-        <v>1.032447831370795</v>
+        <v>1.032887029635943</v>
       </c>
       <c r="N17">
-        <v>1.008557291463308</v>
+        <v>1.011166462168591</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035390844349778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.035738026169142</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019520280965968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9861433377031218</v>
+        <v>0.9868295824367106</v>
       </c>
       <c r="D18">
-        <v>1.012642861923466</v>
+        <v>1.01313996043365</v>
       </c>
       <c r="E18">
-        <v>0.9955286371774513</v>
+        <v>0.9961194273491837</v>
       </c>
       <c r="F18">
-        <v>1.019000580926822</v>
+        <v>1.019415003039438</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044257416616389</v>
+        <v>1.044509022827231</v>
       </c>
       <c r="J18">
-        <v>1.013740251021443</v>
+        <v>1.014399554945089</v>
       </c>
       <c r="K18">
-        <v>1.0262468741688</v>
+        <v>1.026735671237748</v>
       </c>
       <c r="L18">
-        <v>1.009425001120639</v>
+        <v>1.010005482424116</v>
       </c>
       <c r="M18">
-        <v>1.03249920601162</v>
+        <v>1.032906817248519</v>
       </c>
       <c r="N18">
-        <v>1.008647522125487</v>
+        <v>1.011189782698005</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035192596733854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.035514877128178</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019557691737767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9862229767125288</v>
+        <v>0.9869164568888521</v>
       </c>
       <c r="D19">
-        <v>1.012587083320419</v>
+        <v>1.01309262713166</v>
       </c>
       <c r="E19">
-        <v>0.9955596465624328</v>
+        <v>0.9961578634065117</v>
       </c>
       <c r="F19">
-        <v>1.018600620085553</v>
+        <v>1.019021057870685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044194901088086</v>
+        <v>1.044450799183383</v>
       </c>
       <c r="J19">
-        <v>1.013679023429425</v>
+        <v>1.014345445023525</v>
       </c>
       <c r="K19">
-        <v>1.02612863008623</v>
+        <v>1.026625775480176</v>
       </c>
       <c r="L19">
-        <v>1.009390511395617</v>
+        <v>1.009978346836003</v>
       </c>
       <c r="M19">
-        <v>1.032042960611945</v>
+        <v>1.032456518662891</v>
       </c>
       <c r="N19">
-        <v>1.008600500669184</v>
+        <v>1.011145203401758</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034504473327117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.034831563683061</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019516130371174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9843894605458761</v>
+        <v>0.9852103266739372</v>
       </c>
       <c r="D20">
-        <v>1.011085308373909</v>
+        <v>1.011738599897419</v>
       </c>
       <c r="E20">
-        <v>0.9940914462204622</v>
+        <v>0.9948018747781948</v>
       </c>
       <c r="F20">
-        <v>1.016477789237114</v>
+        <v>1.017008235895965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043587496057349</v>
+        <v>1.043918059283366</v>
       </c>
       <c r="J20">
-        <v>1.012535694139286</v>
+        <v>1.013323515591674</v>
       </c>
       <c r="K20">
-        <v>1.024935996951891</v>
+        <v>1.025578133559335</v>
       </c>
       <c r="L20">
-        <v>1.008238992219765</v>
+        <v>1.008936746952215</v>
       </c>
       <c r="M20">
-        <v>1.030236955245586</v>
+        <v>1.03075846664735</v>
       </c>
       <c r="N20">
-        <v>1.008177202892431</v>
+        <v>1.010906288540102</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032544052107865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.032956777156806</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019261324427742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797124889477113</v>
+        <v>0.9808709339393884</v>
       </c>
       <c r="D21">
-        <v>1.007763621143043</v>
+        <v>1.00877618106484</v>
       </c>
       <c r="E21">
-        <v>0.9904901947869726</v>
+        <v>0.9914945251958177</v>
       </c>
       <c r="F21">
-        <v>1.013039175695291</v>
+        <v>1.013842859340891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042390669446871</v>
+        <v>1.042902442765227</v>
       </c>
       <c r="J21">
-        <v>1.010083611878275</v>
+        <v>1.011190791724426</v>
       </c>
       <c r="K21">
-        <v>1.022599387142727</v>
+        <v>1.023593171957183</v>
       </c>
       <c r="L21">
-        <v>1.005654001258724</v>
+        <v>1.006638848183467</v>
       </c>
       <c r="M21">
-        <v>1.02777765724504</v>
+        <v>1.02856663616772</v>
       </c>
       <c r="N21">
-        <v>1.007354338972657</v>
+        <v>1.010755283598654</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030556473169209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.031180905579426</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018842655522414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9767340929428795</v>
+        <v>0.978106225277964</v>
       </c>
       <c r="D22">
-        <v>1.00566158380727</v>
+        <v>1.006901541175594</v>
       </c>
       <c r="E22">
-        <v>0.9882078265438736</v>
+        <v>0.9893978893629803</v>
       </c>
       <c r="F22">
-        <v>1.010898142463487</v>
+        <v>1.011874917076453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04162207623553</v>
+        <v>1.04224834229687</v>
       </c>
       <c r="J22">
-        <v>1.008530537821119</v>
+        <v>1.009838368942807</v>
       </c>
       <c r="K22">
-        <v>1.021121711814527</v>
+        <v>1.022337505901419</v>
       </c>
       <c r="L22">
-        <v>1.004016564967504</v>
+        <v>1.005182343142202</v>
       </c>
       <c r="M22">
-        <v>1.026256753032567</v>
+        <v>1.027214743846744</v>
       </c>
       <c r="N22">
-        <v>1.006835135025749</v>
+        <v>1.010654023271328</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029352761503698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.030110958554753</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018576954878666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783188705605407</v>
+        <v>0.9795652638246642</v>
       </c>
       <c r="D23">
-        <v>1.006779802166111</v>
+        <v>1.007890239258729</v>
       </c>
       <c r="E23">
-        <v>0.9894214719160922</v>
+        <v>0.9905019450371587</v>
       </c>
       <c r="F23">
-        <v>1.012036609491247</v>
+        <v>1.012914028414623</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042032361354575</v>
+        <v>1.042593418736849</v>
       </c>
       <c r="J23">
-        <v>1.009357045227024</v>
+        <v>1.010546764383011</v>
       </c>
       <c r="K23">
-        <v>1.021908407839549</v>
+        <v>1.022997764215348</v>
       </c>
       <c r="L23">
-        <v>1.004887698503341</v>
+        <v>1.005946702434685</v>
       </c>
       <c r="M23">
-        <v>1.02706595295552</v>
+        <v>1.027926934902319</v>
       </c>
       <c r="N23">
-        <v>1.007111445203184</v>
+        <v>1.010665835727678</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029993198800525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.030674618075959</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01871623019176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9844305003427298</v>
+        <v>0.9852508267804337</v>
       </c>
       <c r="D24">
-        <v>1.011097347418781</v>
+        <v>1.011750125883357</v>
       </c>
       <c r="E24">
-        <v>0.9941186201144547</v>
+        <v>0.994828740662926</v>
       </c>
       <c r="F24">
-        <v>1.016443204688756</v>
+        <v>1.016973263051182</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043585317330338</v>
+        <v>1.043915626692333</v>
       </c>
       <c r="J24">
-        <v>1.012541344471122</v>
+        <v>1.013328698408645</v>
       </c>
       <c r="K24">
-        <v>1.024932344138654</v>
+        <v>1.025573991106879</v>
       </c>
       <c r="L24">
-        <v>1.008249812642232</v>
+        <v>1.008947282115158</v>
       </c>
       <c r="M24">
-        <v>1.030187584085104</v>
+        <v>1.030708724401176</v>
       </c>
       <c r="N24">
-        <v>1.008175919560968</v>
+        <v>1.010901484495017</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.0324637928673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.032876245031199</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01925749769092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912752807695425</v>
+        <v>0.9917835503760137</v>
       </c>
       <c r="D25">
-        <v>1.015940837990877</v>
+        <v>1.016197353794461</v>
       </c>
       <c r="E25">
-        <v>0.9994116395432626</v>
+        <v>0.9998529442161127</v>
       </c>
       <c r="F25">
-        <v>1.021408980144442</v>
+        <v>1.021649228621491</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045262412447654</v>
+        <v>1.045392438560384</v>
       </c>
       <c r="J25">
-        <v>1.01609987676194</v>
+        <v>1.016590630449878</v>
       </c>
       <c r="K25">
-        <v>1.028296632164196</v>
+        <v>1.028549324484472</v>
       </c>
       <c r="L25">
-        <v>1.012019095921323</v>
+        <v>1.012453543465204</v>
       </c>
       <c r="M25">
-        <v>1.033683797320442</v>
+        <v>1.033920513231405</v>
       </c>
       <c r="N25">
-        <v>1.009365285727958</v>
+        <v>1.011720679251971</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035230837084934</v>
+        <v>1.035418183215095</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019879938309677</v>
       </c>
     </row>
   </sheetData>
